--- a/biology/Médecine/1799_en_santé_et_médecine/1799_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1799_en_santé_et_médecine/1799_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1799_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1799_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1799 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1799_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1799_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1er janvier : André Jean Baptiste Robineau-Desvoidy (mort en 1857), médecin, entomologiste et géologue français[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier : André Jean Baptiste Robineau-Desvoidy (mort en 1857), médecin, entomologiste et géologue français.
 17 juin : Jean-Baptiste Alphonse Dechauffour de Boisduval (mort en 1879), médecin, entomologiste et botaniste français.</t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1799_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1799_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>18 février : Johannes Hedwig (né en 1730), médecin et botaniste allemand, père de la bryologie moderne.
-30 avril : Jean Goulin (né en 1728), encyclopédiste et professeur d’histoire médicale à l’École de médecine de Paris[2].
+30 avril : Jean Goulin (né en 1728), encyclopédiste et professeur d’histoire médicale à l’École de médecine de Paris.
 6 octobre : William Withering (né en 1741), médecin et botaniste britannique, célèbre pour sa découverte de la digitaline.
 7 septembre : Jan Ingenhousz (né en 1730), médecin et botaniste britannique d'origine néerlandaise.
-17 octobre : Louis Claude Cadet de Gassicourt (né en 1731), chimiste et pharmacien français[3].
-6 décembre : Joseph Black (né en 1728), physicien, chimiste et professeur de médecine écossais[4].
+17 octobre : Louis Claude Cadet de Gassicourt (né en 1731), chimiste et pharmacien français.
+6 décembre : Joseph Black (né en 1728), physicien, chimiste et professeur de médecine écossais.
 31 décembre : Daubenton (né en 1716), naturaliste et médecin français, premier directeur du Muséum national d'histoire naturelle.</t>
         </is>
       </c>
